--- a/languageGP/test_problems/problem_2b.xlsx
+++ b/languageGP/test_problems/problem_2b.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data.xlsx" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,10 +426,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>6358325.82979416</v>
+        <v>12350974.3050161</v>
       </c>
       <c r="C1" t="n">
-        <v>2227.315873015874</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="2">
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>17526.29723983905</v>
+        <v>833605.8592761315</v>
       </c>
       <c r="C2" t="n">
-        <v>2227.315873015874</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +448,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3629.30323809524</v>
+        <v>677064.3984733741</v>
       </c>
       <c r="C3" t="n">
-        <v>2227.315873015874</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="4">
@@ -459,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4349.840011434459</v>
+        <v>10628.49739837396</v>
       </c>
       <c r="C4" t="n">
-        <v>2227.315873015874</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2123.8526984127</v>
+        <v>1492023.181857833</v>
       </c>
       <c r="C5" t="n">
         <v>1710</v>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3206.78526984127</v>
+        <v>24242.25989439513</v>
       </c>
       <c r="C6" t="n">
         <v>1710</v>
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4045.369000000001</v>
+        <v>16844.08050354173</v>
       </c>
       <c r="C7" t="n">
         <v>1710</v>
@@ -503,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11933.9304</v>
+        <v>17361.24440000001</v>
       </c>
       <c r="C8" t="n">
         <v>1710</v>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2397.8</v>
+        <v>31886.18044818028</v>
       </c>
       <c r="C9" t="n">
         <v>1710</v>
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3119.8</v>
+        <v>54504.597</v>
       </c>
       <c r="C10" t="n">
         <v>1710</v>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>619666</v>
+        <v>12262.9628</v>
       </c>
       <c r="C11" t="n">
         <v>1710</v>
@@ -547,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3336.608999999996</v>
+        <v>8113.144200000014</v>
       </c>
       <c r="C12" t="n">
         <v>1710</v>
@@ -558,7 +558,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3119.8</v>
+        <v>24823.1314</v>
       </c>
       <c r="C13" t="n">
         <v>1710</v>
@@ -569,7 +569,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4800.277800000005</v>
+        <v>25891.4878</v>
       </c>
       <c r="C14" t="n">
         <v>1710</v>
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3841.8</v>
+        <v>19839.4542</v>
       </c>
       <c r="C15" t="n">
         <v>1710</v>
@@ -591,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1710</v>
+        <v>1722036.745342959</v>
       </c>
       <c r="C16" t="n">
         <v>1710</v>
@@ -602,7 +602,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2202.86</v>
+        <v>296314.7155999999</v>
       </c>
       <c r="C17" t="n">
         <v>1710</v>
@@ -613,7 +613,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1710</v>
+        <v>23823.6174</v>
       </c>
       <c r="C18" t="n">
         <v>1710</v>
@@ -624,7 +624,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4677.4086</v>
+        <v>13800.11506226496</v>
       </c>
       <c r="C19" t="n">
         <v>1710</v>
@@ -635,7 +635,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3131.2</v>
+        <v>26332.3926</v>
       </c>
       <c r="C20" t="n">
         <v>1710</v>
@@ -646,7 +646,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2397.8</v>
+        <v>1821012.06</v>
       </c>
       <c r="C21" t="n">
         <v>1710</v>
@@ -657,7 +657,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>6141.56</v>
+        <v>15395.33659056317</v>
       </c>
       <c r="C22" t="n">
         <v>1710</v>
@@ -668,7 +668,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1881.209000000001</v>
+        <v>2514971.920800166</v>
       </c>
       <c r="C23" t="n">
         <v>1710</v>
@@ -679,7 +679,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2443.4</v>
+        <v>1187972.197733379</v>
       </c>
       <c r="C24" t="n">
         <v>1710</v>
@@ -690,7 +690,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1710</v>
+        <v>26842.70823333333</v>
       </c>
       <c r="C25" t="n">
         <v>1710</v>
@@ -701,7 +701,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1710</v>
+        <v>4024583.029000001</v>
       </c>
       <c r="C26" t="n">
         <v>1710</v>
@@ -712,7 +712,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>2432</v>
+        <v>50019.89342933311</v>
       </c>
       <c r="C27" t="n">
         <v>1710</v>
@@ -723,7 +723,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>2443.4</v>
+        <v>36222.84820000002</v>
       </c>
       <c r="C28" t="n">
         <v>1710</v>
@@ -734,7 +734,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>1710</v>
+        <v>1500474.970377697</v>
       </c>
       <c r="C29" t="n">
         <v>1710</v>
@@ -745,7 +745,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>4356.24</v>
+        <v>304927.7826838635</v>
       </c>
       <c r="C30" t="n">
         <v>1710</v>
@@ -756,7 +756,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1710</v>
+        <v>34627.85720000003</v>
       </c>
       <c r="C31" t="n">
         <v>1710</v>
@@ -767,7 +767,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>2407406.66</v>
+        <v>16247.1736</v>
       </c>
       <c r="C32" t="n">
         <v>1710</v>
@@ -778,7 +778,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>6666.72</v>
+        <v>5627.993800000001</v>
       </c>
       <c r="C33" t="n">
         <v>1710</v>
@@ -789,7 +789,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>4744.313400000003</v>
+        <v>704446.0596000038</v>
       </c>
       <c r="C34" t="n">
         <v>1710</v>
@@ -800,7 +800,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>4563.8</v>
+        <v>16702.102</v>
       </c>
       <c r="C35" t="n">
         <v>1710</v>
@@ -811,7 +811,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>4459.854800000001</v>
+        <v>4078.16</v>
       </c>
       <c r="C36" t="n">
         <v>1710</v>
@@ -822,7 +822,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1710</v>
+        <v>2454.8</v>
       </c>
       <c r="C37" t="n">
         <v>1710</v>
@@ -833,7 +833,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>4575.2</v>
+        <v>5668.349799999981</v>
       </c>
       <c r="C38" t="n">
         <v>1710</v>
@@ -844,7 +844,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>2443.4</v>
+        <v>2697890.780400001</v>
       </c>
       <c r="C39" t="n">
         <v>1710</v>
@@ -855,7 +855,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>3119.8</v>
+        <v>2239.955599999998</v>
       </c>
       <c r="C40" t="n">
         <v>1710</v>
@@ -866,7 +866,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>6288.547799999998</v>
+        <v>10460.7958</v>
       </c>
       <c r="C41" t="n">
         <v>1710</v>
@@ -877,7 +877,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1710</v>
+        <v>5365.863610661169</v>
       </c>
       <c r="C42" t="n">
         <v>1710</v>
@@ -888,7 +888,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>2443.4</v>
+        <v>4825.646599999994</v>
       </c>
       <c r="C43" t="n">
         <v>1710</v>
@@ -899,7 +899,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>2443.109347912846</v>
+        <v>7025.581155555548</v>
       </c>
       <c r="C44" t="n">
         <v>1710</v>
@@ -910,7 +910,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>3512.934738836222</v>
+        <v>1047752.2298</v>
       </c>
       <c r="C45" t="n">
         <v>1710</v>
@@ -921,7 +921,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>6820.122199999991</v>
+        <v>265304.7892044006</v>
       </c>
       <c r="C46" t="n">
         <v>1710</v>
@@ -932,7 +932,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>6189.723000000004</v>
+        <v>287177.7686</v>
       </c>
       <c r="C47" t="n">
         <v>1710</v>
@@ -943,7 +943,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>2443.4</v>
+        <v>12822.03219999999</v>
       </c>
       <c r="C48" t="n">
         <v>1710</v>
@@ -954,7 +954,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>2773.528800000006</v>
+        <v>3590.24</v>
       </c>
       <c r="C49" t="n">
         <v>1710</v>
@@ -965,7 +965,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>4563.8</v>
+        <v>2432</v>
       </c>
       <c r="C50" t="n">
         <v>1710</v>
@@ -976,7 +976,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>3119.8</v>
+        <v>38252.75435124936</v>
       </c>
       <c r="C51" t="n">
         <v>1710</v>
@@ -987,7 +987,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>1710</v>
+        <v>3583838.425000076</v>
       </c>
       <c r="C52" t="n">
         <v>1710</v>
@@ -998,7 +998,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>2397.8</v>
+        <v>11759.765</v>
       </c>
       <c r="C53" t="n">
         <v>1710</v>
@@ -1009,7 +1009,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>1710</v>
+        <v>14955.565</v>
       </c>
       <c r="C54" t="n">
         <v>1710</v>
@@ -1020,7 +1020,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>1710</v>
+        <v>4523.189400000003</v>
       </c>
       <c r="C55" t="n">
         <v>1710</v>
@@ -1031,7 +1031,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>2022.36</v>
+        <v>3898.8</v>
       </c>
       <c r="C56" t="n">
         <v>1710</v>
@@ -1042,7 +1042,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>34385.28799999983</v>
+        <v>2443.4</v>
       </c>
       <c r="C57" t="n">
         <v>1710</v>
@@ -1053,7 +1053,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>3165.4</v>
+        <v>40134.52575124936</v>
       </c>
       <c r="C58" t="n">
         <v>1710</v>
@@ -1064,7 +1064,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>1710</v>
+        <v>38252.75435124936</v>
       </c>
       <c r="C59" t="n">
         <v>1710</v>
@@ -1075,7 +1075,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>2432</v>
+        <v>4274.494600000002</v>
       </c>
       <c r="C60" t="n">
         <v>1710</v>
@@ -1086,7 +1086,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v/>
+        <v>119111.3542443181</v>
       </c>
       <c r="C61" t="n">
         <v>1710</v>
@@ -1097,7 +1097,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v/>
+        <v>863737.4904087982</v>
       </c>
       <c r="C62" t="n">
         <v>1710</v>
@@ -1108,7 +1108,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>4473.74</v>
+        <v>4486.66</v>
       </c>
       <c r="C63" t="n">
         <v>1710</v>
@@ -1119,7 +1119,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>3119.8</v>
+        <v>13358.40219999999</v>
       </c>
       <c r="C64" t="n">
         <v>1710</v>
@@ -1130,7 +1130,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>3018.72</v>
+        <v>4229.4</v>
       </c>
       <c r="C65" t="n">
         <v>1710</v>
@@ -1141,7 +1141,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>2397.8</v>
+        <v>1466184.080799999</v>
       </c>
       <c r="C66" t="n">
         <v>1710</v>
@@ -1152,7 +1152,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>1710</v>
+        <v>1721.4</v>
       </c>
       <c r="C67" t="n">
         <v>1710</v>
@@ -1163,7 +1163,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>5766.049373622781</v>
+        <v>113241.9414312487</v>
       </c>
       <c r="C68" t="n">
         <v>1710</v>
@@ -1174,7 +1174,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>3306</v>
+        <v>38804.67395124937</v>
       </c>
       <c r="C69" t="n">
         <v>1710</v>
@@ -1185,7 +1185,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>4377.956799999998</v>
+        <v>38463.28195124948</v>
       </c>
       <c r="C70" t="n">
         <v>1710</v>
@@ -1196,7 +1196,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>3131.2</v>
+        <v>2432</v>
       </c>
       <c r="C71" t="n">
         <v>1710</v>
@@ -1207,7 +1207,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>1710</v>
+        <v>3199.6</v>
       </c>
       <c r="C72" t="n">
         <v>1710</v>
@@ -1218,7 +1218,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>3119.8</v>
+        <v>2234265.86</v>
       </c>
       <c r="C73" t="n">
         <v>1710</v>
@@ -1229,7 +1229,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>2397.8</v>
+        <v>12452.467</v>
       </c>
       <c r="C74" t="n">
         <v>1710</v>
@@ -1240,7 +1240,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>3614.487800000004</v>
+        <v>10339.8</v>
       </c>
       <c r="C75" t="n">
         <v>1710</v>
@@ -1251,7 +1251,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>4572.92</v>
+        <v>1836115.669048</v>
       </c>
       <c r="C76" t="n">
         <v>1710</v>
@@ -1262,7 +1262,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>3165.4</v>
+        <v>1803058.2684</v>
       </c>
       <c r="C77" t="n">
         <v>1710</v>
@@ -1273,7 +1273,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>1316187</v>
+        <v>5017.337599999985</v>
       </c>
       <c r="C78" t="n">
         <v>1710</v>
@@ -1284,7 +1284,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>6698.78</v>
+        <v>4407.969599999983</v>
       </c>
       <c r="C79" t="n">
         <v>1710</v>
@@ -1295,7 +1295,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>5176.36</v>
+        <v>3494.221600000001</v>
       </c>
       <c r="C80" t="n">
         <v>1710</v>
@@ -1306,7 +1306,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>1710</v>
+        <v>3154</v>
       </c>
       <c r="C81" t="n">
         <v>1710</v>
@@ -1317,7 +1317,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>5858.08</v>
+        <v>19691.61373830247</v>
       </c>
       <c r="C82" t="n">
         <v>1710</v>
@@ -1328,7 +1328,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>1710</v>
+        <v>439711.1555999871</v>
       </c>
       <c r="C83" t="n">
         <v>1710</v>
@@ -1339,7 +1339,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>3447.249799999991</v>
+        <v>17381.43559999999</v>
       </c>
       <c r="C84" t="n">
         <v>1710</v>
@@ -1350,7 +1350,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>4043.500199999999</v>
+        <v>4211.802199999985</v>
       </c>
       <c r="C85" t="n">
         <v>1710</v>
@@ -1361,7 +1361,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>21165.04393599996</v>
+        <v>3165.4</v>
       </c>
       <c r="C86" t="n">
         <v>1710</v>
@@ -1372,7 +1372,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>3430.26</v>
+        <v>1721.4</v>
       </c>
       <c r="C87" t="n">
         <v>1710</v>
@@ -1383,7 +1383,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>3876</v>
+        <v>8544750.300000001</v>
       </c>
       <c r="C88" t="n">
         <v>1710</v>
@@ -1394,7 +1394,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>2432</v>
+        <v>2443.4</v>
       </c>
       <c r="C89" t="n">
         <v>1710</v>
@@ -1405,7 +1405,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>2443.4</v>
+        <v>4961.93956242068</v>
       </c>
       <c r="C90" t="n">
         <v>1710</v>
@@ -1416,7 +1416,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>3841.8</v>
+        <v>4407.969599999983</v>
       </c>
       <c r="C91" t="n">
         <v>1710</v>
@@ -1427,7 +1427,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>19960.65400000001</v>
+        <v>1721.4</v>
       </c>
       <c r="C92" t="n">
         <v>1710</v>
@@ -1438,7 +1438,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>4016.98</v>
+        <v>2452.292557651986</v>
       </c>
       <c r="C93" t="n">
         <v>1710</v>
@@ -1449,7 +1449,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>5286.978000000003</v>
+        <v>27713.4</v>
       </c>
       <c r="C94" t="n">
         <v>1710</v>
@@ -1460,7 +1460,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>2432</v>
+        <v>1710</v>
       </c>
       <c r="C95" t="n">
         <v>1710</v>
@@ -1482,7 +1482,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>1710</v>
+        <v>101318.0625804458</v>
       </c>
       <c r="C97" t="n">
         <v>1710</v>
@@ -1493,7 +1493,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>2443.4</v>
+        <v>235256.6132141534</v>
       </c>
       <c r="C98" t="n">
         <v>1710</v>
@@ -1504,7 +1504,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>3401.38</v>
+        <v>1721.4</v>
       </c>
       <c r="C99" t="n">
         <v>1710</v>
@@ -1515,9 +1515,1109 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>3196.915599999993</v>
+        <v>3525.533599999993</v>
       </c>
       <c r="C100" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1055209.08</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2630425.36</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5187</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2074.8</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1592629.4</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3876</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3135.372399999991</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2917.134600000002</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2443.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1721.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3154</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6875.362803931703</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>466800.4511999983</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2210.08</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4454.682999999989</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1721.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4202.438999999988</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12426.38</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12836.03520000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1721.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4953.945999999995</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>536058.7572000035</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>366808.0073999976</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1721.4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1884.3858</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1721.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>10339.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3679.42219999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5101.76219999999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3154</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3117.117200000002</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3154</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>10339.8</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4403.06</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4403.06</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9617.799999999999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9617.799999999999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>656670.3549187911</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3363.596599999993</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1103809.339599974</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2390511.835600007</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3876</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9617.799999999999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6705.497232558143</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C200" t="n">
         <v>1710</v>
       </c>
     </row>
